--- a/vuejs/Timeline.xlsx
+++ b/vuejs/Timeline.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\01-WIN10-TMP\Desktop\learning_today\vuejs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C88C1-650E-4D30-98B2-5BD5A1099785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,21 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Tiêu đề</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cài đặt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dùng thẻ &lt;script&gt; trực tiếp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>Dùng thẻ &lt;script&gt; trực tiếp</t>
   </si>
   <si>
     <r>
@@ -79,11 +90,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;script src="https://cdn.jsdelivr.net/npm/vue"&gt;&lt;/script&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cài bằng NPM</t>
+      <t>&lt;script src="https://cdn.jsdelivr.net/npm/vue"&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Cài bằng NPM</t>
   </si>
   <si>
     <r>
@@ -105,11 +116,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">npm install vue</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng</t>
+      <t>npm install vue</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng</t>
   </si>
   <si>
     <r>
@@ -132,7 +143,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Reactive</t>
+      <t>→ Reactive</t>
     </r>
   </si>
   <si>
@@ -166,7 +177,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">el</t>
+      <t>el</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +198,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data</t>
+      <t>data</t>
     </r>
     <r>
       <rPr>
@@ -215,7 +226,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">methods</t>
+      <t>methods</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +236,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: {
+      <t>: {
 		setMessage: function () {
 			this.message = 'Time : ' + new Date().toLocaleString()
 		}
@@ -264,7 +275,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">message</t>
+      <t>message</t>
     </r>
     <r>
       <rPr>
@@ -279,6 +290,46 @@
     </r>
   </si>
   <si>
+    <t>Biên soạn với các component</t>
+  </si>
+  <si>
+    <t>Xây dựng những ứng dụng quy mô lớn được tạo thành từ những phần tử nhỏ, độc lập, và thường là tái sử dụng được.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>// Chúng ta khởi tạo một object "data"
+var data = { a: 1 }
+// Object này được truyền vào một đối tượng Vue
+var vm = new Vue({
+  data: data
+})
+// Truy xuất đến thuộc tính của đối tượng 
+// trả về giá trị của object "data" đã khởi tạo 
+vm.a == data.a // =&gt; true
+// Thay đổi thuộc tính của vm cũng
+// ảnh hưởng đến dữ liệu ban đầu
+vm.a = 2
+data.a // =&gt; 2
+// ... và ngược lại
+data.a = 3
+vm.a // =&gt; 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Object.freeze()</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -287,6 +338,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve"> ngăn không cho những thuộc tính sẵn có bị chỉnh sửa, cũng có nghĩa là hệ thống reactivity không thể theo dõi các thay đổi xảy ra.</t>
+    </r>
+  </si>
+  <si>
+    <t>Đối tượng Vue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi khởi tạo một đối tượng Vue, bạn truyền vào một object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> với các tùy chọn. Phần lớn bản hướng dẫn này sẽ mô tả cách sử dụng các tùy chọn đó để tạo ra behavior (hành vi) mong muốn. Bạn cũng có thể tham khảo danh sách đầy đủ các tùy chọn ở trang API.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Render áp dụng 1 hành động lên giá trị được gọi là </t>
     </r>
     <r>
@@ -308,31 +391,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div id="app-2"&gt;
-	&lt;span </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">v-bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A933"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:title="message"&gt;
-		Rê chuột lên đây một vài giây để xem thuộc tính `title` được bind!
-	&lt;/span&gt;
-&lt;/div&gt;
+      <t xml:space="preserve">
 &lt;div id="app-3"&gt;
 	&lt;span </t>
     </r>
@@ -344,7 +403,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-if</t>
+      <t>v-if</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +427,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-for</t>
+      <t>v-for</t>
     </r>
     <r>
       <rPr>
@@ -395,7 +454,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-on:click</t>
+      <t>v-on:click</t>
     </r>
     <r>
       <rPr>
@@ -419,7 +478,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-model</t>
+      <t>v-model</t>
     </r>
     <r>
       <rPr>
@@ -429,25 +488,516 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">="message"&gt;
+      <t>="message"&gt;
 &lt;/div&gt;</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Biên soạn với các component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xây dựng những ứng dụng quy mô lớn được tạo thành từ những phần tử nhỏ, độc lập, và thường là tái sử dụng được.</t>
+    <t>Sơ đồ vòng đời</t>
+  </si>
+  <si>
+    <t>Cú pháp sử dụng template</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;span&gt;Thông điệp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ msg }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Dạng HTML thuần túy</t>
+  </si>
+  <si>
+    <t>Dạng văn bản (cú pháp mustache)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;Sử dụng cú pháp mustache: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ rawHtml }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+&lt;p&gt;Sử dụng directive v-html: &lt;span </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-html="rawHtml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&lt;/span&gt;&lt;/p&gt;
+Nội dung của thẻ span sẽ được thay thế bằng giá trị của thuộc tính rawHtml dưới dạng HTML thuần túy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tất cả các ràng buộc dữ liệu sẽ không được xử lí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. Lưu ý rằng bạn không thể dùng v-html để viết template partial, vì Vue không phải là một template engine dựa trên chuỗi. Thay vào đó, hãy dùng component cho mục đích biên soạn và tái sử dụng UI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Các thuộc tính HTML</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cú pháp mustache không dùng được bên trong các thuộc tính HTML. Thay vào đó, bạn hãy dùng directive v-bind
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-bind:id="dynamicId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&lt;/div&gt;
+&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-bind:disabled="isButtonDisabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;Hòn Vọng Phu&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng các biểu thức JavaScript</t>
+  </si>
+  <si>
+    <t>{{ number + 1 }}
+{{ ok ? 'YES' : 'NO' }}
+{{ message.split('').reverse().join('') }}
+&lt;div v-bind:id="'list-' + id"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trường hợp không mustache không phải là biểu thức thì sẽ không hoạt động được
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;!-- đây là một khai báo, không phải biểu thức: --&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ var a = 1 }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;!--
+  các lệnh quản lí luồng (flow control) cũng sẽ không hoạt động,
+  thay vào đó bạn hãy dùng toán tử ba ngôi (ternary operator):
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ if (ok) { return message } }}</t>
+    </r>
+  </si>
+  <si>
+    <t>Dạng Directive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-if="seen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;Thoắt ẩn thoắt hiện&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ở đây, directive v-if sẽ thêm vào hoặc bỏ đi phần tử &lt;p&gt; dựa trên tính đúng sai của giá trị của biểu thức seen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Một số directive có thể nhận vào một tham số, đánh dấu bằng một dấu hai chấm theo sau tên của directive. Ví dụ, directive v-bind được dùng để cập nhật động một thuộc tính HTML:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-bind:href="url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; ... &lt;/a&gt;
+&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v-on:click="doSomething"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; ... &lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Cú pháp rút gọn :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;!-- cú pháp đầy đủ --&gt;
+&lt;a v-bind:href="url"&gt; ... &lt;/a&gt;
+&lt;!-- cú pháp rút gọn: dùng dấu hai chấm --&gt;
+&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:href="url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; ... &lt;/a&gt;
+&lt;!-- cú pháp đầy đủ --&gt;
+&lt;a v-on:click="doSomething"&gt; ... &lt;/a&gt;
+&lt;!-- cú pháp rút gọn: dùng kí tự @ --&gt;
+&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@click="doSomething"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; ... &lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Computed property và watcher</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;div id="example"&gt;
+ &lt;p&gt;Thông điệp ban đầu: "{{ message }}"&lt;/p&gt;
+ &lt;p&gt;Thông điệp bị thay đổi tính toán (computed): "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ modifyMessage }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"&lt;/p&gt;
+&lt;/div&gt;
+var vm = new Vue({
+ el: '#example',
+ data:{
+  message: 'người đông bến đợi thuyền xuôi ngược'
+ },
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>computed: {
+  modifyMessage : function(){
+   return this.message + ' -&gt; computed and change : ' + new Date().toLocaleString()
+  }
+ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Computed property
+Biến tự động tính toán </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Nếu các biến thành phần phụ thuộc có thay đổi thì computed property sẽ tự động cập nhật theo)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp không có thay đổi ở cách thành phần phụ thuộc thì kết quả giá trị sẽ được lấy từ cache khi có truy xuất
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Đối với bất kì logic nào phức tạp, bạn nên sử dụng computed property.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,22 +1006,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -499,6 +1034,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,84 +1073,60 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -651,36 +1185,409 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>46543</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4986335</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Vòng đời của một đối tượng Vue">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9E2914-ECD5-48BA-8749-F2C27B9B9F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1880106" y="18264188"/>
+          <a:ext cx="4939792" cy="12477747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="89.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="4" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.45"/>
+    <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89" style="1" customWidth="1"/>
+    <col min="4" max="1018" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1019" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -699,69 +1606,155 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="209" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vuejs/Timeline.xlsx
+++ b/vuejs/Timeline.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\01-WIN10-TMP\Desktop\learning_today\vuejs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F19956-B9EA-48A7-A1F4-148D6682E0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="AXIOS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,21 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t xml:space="preserve">Tiêu đề</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cài đặt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dùng thẻ &lt;script&gt; trực tiếp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>Dùng thẻ &lt;script&gt; trực tiếp</t>
   </si>
   <si>
     <r>
@@ -79,11 +85,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;script src="https://cdn.jsdelivr.net/npm/vue"&gt;&lt;/script&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cài bằng NPM</t>
+      <t>&lt;script src="https://cdn.jsdelivr.net/npm/vue"&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Cài bằng NPM</t>
   </si>
   <si>
     <r>
@@ -105,11 +111,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">npm install vue</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng</t>
+      <t>npm install vue</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng</t>
   </si>
   <si>
     <r>
@@ -132,7 +138,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Reactive</t>
+      <t>→ Reactive</t>
     </r>
   </si>
   <si>
@@ -215,7 +221,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">el</t>
+      <t>el</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +242,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data</t>
+      <t>data</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +270,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">methods</t>
+      <t>methods</t>
     </r>
     <r>
       <rPr>
@@ -274,7 +280,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: {
+      <t>: {
 		setMessage: function () {
 			this.message = 'Time : ' + new Date().toLocaleString()
 		}
@@ -313,7 +319,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">message</t>
+      <t>message</t>
     </r>
     <r>
       <rPr>
@@ -369,7 +375,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-if</t>
+      <t>v-if</t>
     </r>
     <r>
       <rPr>
@@ -393,7 +399,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-for</t>
+      <t>v-for</t>
     </r>
     <r>
       <rPr>
@@ -420,7 +426,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-on:click</t>
+      <t>v-on:click</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +450,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-model</t>
+      <t>v-model</t>
     </r>
     <r>
       <rPr>
@@ -454,18 +460,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">="message"&gt;
+      <t>="message"&gt;
 &lt;/div&gt;</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Biên soạn với các component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xây dựng những ứng dụng quy mô lớn được tạo thành từ những phần tử nhỏ, độc lập, và thường là tái sử dụng được.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đối tượng Vue</t>
+    <t>Biên soạn với các component</t>
+  </si>
+  <si>
+    <t>Xây dựng những ứng dụng quy mô lớn được tạo thành từ những phần tử nhỏ, độc lập, và thường là tái sử dụng được.</t>
+  </si>
+  <si>
+    <t>Đối tượng Vue</t>
   </si>
   <si>
     <r>
@@ -486,7 +492,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">options</t>
+      <t>options</t>
     </r>
     <r>
       <rPr>
@@ -500,13 +506,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sơ đồ vòng đời</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cú pháp sử dụng template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạng văn bản (cú pháp mustache)</t>
+    <t>Sơ đồ vòng đời</t>
+  </si>
+  <si>
+    <t>Cú pháp sử dụng template</t>
+  </si>
+  <si>
+    <t>Dạng văn bản (cú pháp mustache)</t>
   </si>
   <si>
     <r>
@@ -527,98 +533,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{{ msg }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/span&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạng HTML thuần túy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;Sử dụng cú pháp mustache: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{{ rawHtml }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
-&lt;p&gt;Sử dụng directive v-html: &lt;span </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">v-html="rawHtml"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&lt;/span&gt;&lt;/p&gt;
-Nội dung của thẻ span sẽ được thay thế bằng giá trị của thuộc tính rawHtml dưới dạng HTML thuần túy - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">tất cả các ràng buộc dữ liệu sẽ không được xử lí</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Lưu ý rằng bạn không thể dùng v-html để viết template partial, vì Vue không phải là một template engine dựa trên chuỗi. Thay vào đó, hãy dùng component cho mục đích biên soạn và tái sử dụng UI.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Các thuộc tính HTML</t>
+      <t>{{ msg }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Dạng HTML thuần túy</t>
+  </si>
+  <si>
+    <t>Các thuộc tính HTML</t>
   </si>
   <si>
     <r>
@@ -650,7 +582,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-bind:id="dynamicId"</t>
+      <t>v-bind:id="dynamicId"</t>
     </r>
     <r>
       <rPr>
@@ -671,7 +603,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-bind:disabled="isButtonDisabled"</t>
+      <t>v-bind:disabled="isButtonDisabled"</t>
     </r>
     <r>
       <rPr>
@@ -681,14 +613,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt;Hòn Vọng Phu&lt;/button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng các biểu thức JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{ number + 1 }}
+      <t>&gt;Hòn Vọng Phu&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng các biểu thức JavaScript</t>
+  </si>
+  <si>
+    <t>{{ number + 1 }}
 {{ ok ? 'YES' : 'NO' }}
 {{ message.split('').reverse().join('') }}
 &lt;div v-bind:id="'list-' + id"&gt;&lt;/div&gt;</t>
@@ -761,11 +693,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{{ if (ok) { return message } }}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạng Directive</t>
+      <t>{{ if (ok) { return message } }}</t>
+    </r>
+  </si>
+  <si>
+    <t>Dạng Directive</t>
   </si>
   <si>
     <r>
@@ -786,7 +718,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-if="seen"</t>
+      <t>v-if="seen"</t>
     </r>
     <r>
       <rPr>
@@ -841,7 +773,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-bind:href="url"</t>
+      <t>v-bind:href="url"</t>
     </r>
     <r>
       <rPr>
@@ -862,7 +794,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v-on:click="doSomething"</t>
+      <t>v-on:click="doSomething"</t>
     </r>
     <r>
       <rPr>
@@ -906,7 +838,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:href="url"</t>
+      <t>:href="url"</t>
     </r>
     <r>
       <rPr>
@@ -930,7 +862,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">@click="doSomething"</t>
+      <t>@click="doSomething"</t>
     </r>
     <r>
       <rPr>
@@ -940,11 +872,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt; ... &lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Computed property và watcher</t>
+      <t>&gt; ... &lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Computed property và watcher</t>
   </si>
   <si>
     <r>
@@ -1000,7 +932,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div id="example"&gt;
+      <t>&lt;div id="example"&gt;
  &lt;p&gt;Thông điệp ban đầu: "{{ message }}"&lt;/p&gt;
  &lt;p&gt;Thông điệp bị thay đổi tính toán (computed): "</t>
     </r>
@@ -1012,7 +944,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{{ modifyMessage }}</t>
+      <t>{{ modifyMessage }}</t>
     </r>
     <r>
       <rPr>
@@ -1054,33 +986,33 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">})</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch property 
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>Watch property 
 Để quan sát và phản ứng (react) lại những thay đổi trên dữ liệu
 Thích hợp cho hầu hết các trường hợp, nhưng cũng có lúc cần tới những watcher tùy biến. Đó là lí do tại sao Vue cung cấp một cách khái quát hơn để phản ứng lại với việc thay đổi dữ liệu trong watch. Cách sử dụng này rất hữu ích khi bạn muốn thực hiện những tính toán không đồng bộ và tốn kém liên quan đến việc thay đổi dữ liệu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sử dụng trong các trường hợp sau :
+    <t>Sử dụng trong các trường hợp sau :
 - Các hoạt động bất đồng bộ khi thay đổi dữ liệu
 - Giới hạn việc tính toán và gán trạng thái trung gian cho tới khi có được kết quả cuối cùng.
 - Các thiết lập giá trị ngay lập tức</t>
   </si>
   <si>
-    <t xml:space="preserve">Sự khác biệt giữa computed và watch :
+    <t>Sự khác biệt giữa computed và watch :
 - Computed : theo dõi sự thay đổi của tất cả các thành phần được sử dụng trong lệnh computed nếu có thay đổi thì sẽ thực thi lại
 - Watch : theo dõi sự thay đổi của 1 biến xác định</t>
   </si>
   <si>
-    <t xml:space="preserve">Binding cho class và style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binding class trong HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div v-bind:class="{ active: isActive }"&gt;&lt;/div&gt;
+    <t>Binding cho class và style</t>
+  </si>
+  <si>
+    <t>Binding class trong HTML</t>
+  </si>
+  <si>
+    <t>&lt;div v-bind:class="{ active: isActive }"&gt;&lt;/div&gt;
 &lt;div class="static"
      v-bind:class="{ active: isActive, 'text-danger': hasError }"&gt;
 &lt;/div&gt;
@@ -1093,10 +1025,10 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Sử dụng cú pháp mảng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p v-bind:class="classitem"&gt;Test&lt;/p&gt;
+    <t>Sử dụng cú pháp mảng</t>
+  </si>
+  <si>
+    <t>&lt;p v-bind:class="classitem"&gt;Test&lt;/p&gt;
 data: {
 	classitem: { 
 		activeClass: true,
@@ -1105,56 +1037,56 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Sử dụng với các component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay lại sau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binding cho inline style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cách thức tương tự như bind class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tự động thêm prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chưa rõ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hỗ trợ đa trình duyệt
+    <t>Sử dụng với các component</t>
+  </si>
+  <si>
+    <t>Quay lại sau</t>
+  </si>
+  <si>
+    <t>Binding cho inline style</t>
+  </si>
+  <si>
+    <t>Cách thức tương tự như bind class</t>
+  </si>
+  <si>
+    <t>Tự động thêm prefix</t>
+  </si>
+  <si>
+    <t>Chưa rõ</t>
+  </si>
+  <si>
+    <t>Hỗ trợ đa trình duyệt
 Với kĩ thuật này, Vue sẽ chỉ render ra giá trị trong mảng mà trình duyệt hỗ trợ.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div v-bind:style="{ display: ['-webkit-box', '-ms-flexbox', 'flex'] }"&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Render theo điều kiện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 v-if="ok"&gt;Mọi việc ổn cả&lt;/h1&gt;
+    <t>&lt;div v-bind:style="{ display: ['-webkit-box', '-ms-flexbox', 'flex'] }"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Render theo điều kiện</t>
+  </si>
+  <si>
+    <t>V-if</t>
+  </si>
+  <si>
+    <t>&lt;h1 v-if="ok"&gt;Mọi việc ổn cả&lt;/h1&gt;
 &lt;h1 v-else&gt;Có gì đó sai sai&lt;/h1&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhóm điều kiện với v-if trên thẻ &lt;template&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;template v-if="ok"&gt;
+    <t>Nhóm điều kiện với v-if trên thẻ &lt;template&gt;</t>
+  </si>
+  <si>
+    <t>&lt;template v-if="ok"&gt;
   &lt;h1&gt;Anh chàng chăn lợn&lt;/h1&gt;
   &lt;p&gt;Ơ này, Augustin thân mến ơi&lt;/p&gt;
   &lt;p&gt;Mọi việc đều như ý, như ý, như ý&lt;/p&gt;
 &lt;/template&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">V-else
+    <t>V-else
 Để được coi là hợp lệ, phần tử có v-else phải theo ngay sau một phần tử v-if hoặc v-else-if.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div v-if="Math.random() &gt; 0.5"&gt;
+    <t>&lt;div v-if="Math.random() &gt; 0.5"&gt;
   Tài
 &lt;/div&gt;
 &lt;div v-else&gt;
@@ -1162,10 +1094,10 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">V-else-if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div v-if="type === 'A'"&gt;A&lt;/div&gt;
+    <t>V-else-if</t>
+  </si>
+  <si>
+    <t>&lt;div v-if="type === 'A'"&gt;A&lt;/div&gt;
 &lt;div v-else-if="type === 'B'"&gt;B&lt;/div&gt;
 &lt;div v-else-if="type === 'C'"&gt;C&lt;/div&gt;
 &lt;div v-else-if="type === 'D'"&gt;D&lt;/div&gt;
@@ -1201,7 +1133,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Khi dùng key với giá trị độc nhất (unique), về căn bản bạn đang dặn Vue “xem hai phần tử này là hoàn toàn khác nhau và đừng dùng lại</t>
+      <t>Khi dùng key với giá trị độc nhất (unique), về căn bản bạn đang dặn Vue “xem hai phần tử này là hoàn toàn khác nhau và đừng dùng lại</t>
     </r>
   </si>
   <si>
@@ -1225,7 +1157,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">key="username-input"</t>
+      <t>key="username-input"</t>
     </r>
     <r>
       <rPr>
@@ -1249,7 +1181,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">key="email-input"</t>
+      <t>key="email-input"</t>
     </r>
     <r>
       <rPr>
@@ -1271,7 +1203,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Bây giờ thì hai phần tử &lt;input&gt; này sẽ được render lại từ đầu mỗi khi giá trị loginType được thay đổi.
+      <t>Bây giờ thì hai phần tử &lt;input&gt; này sẽ được render lại từ đầu mỗi khi giá trị loginType được thay đổi.
 Lưu ý rằng các phần tử &lt;label&gt; vẫn được sử dụng lại vì không có thuộc tính key.</t>
     </r>
   </si>
@@ -1295,12 +1227,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Điểm khác biệt giữa v-show và v-if là phần tử được đánh dấu với v-show sẽ luôn luôn được render và chứa trong DOM; v-show chỉ bật tắt thuộc tính display của phần tử này.
+      <t>Điểm khác biệt giữa v-show và v-if là phần tử được đánh dấu với v-show sẽ luôn luôn được render và chứa trong DOM; v-show chỉ bật tắt thuộc tính display của phần tử này.
 v-show không hỗ trợ thẻ &lt;template&gt; và cũng không hoạt động với v-else.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h1 v-show="ok"&gt;Xin chào!&lt;/h1&gt;</t>
+    <t>&lt;h1 v-show="ok"&gt;Xin chào!&lt;/h1&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">v-if và v-show – khi nào thì dùng
@@ -1310,16 +1242,160 @@
   <si>
     <t xml:space="preserve">v-if dùng với v-for
 Khi dùng chung với v-if, v-for có độ ưu tiên cao hơn. </t>
+  </si>
+  <si>
+    <t>Sử dụng axios</t>
+  </si>
+  <si>
+    <t>https://kapeli.com/cheat_sheets/Axios.docset/Contents/Resources/Documents/index</t>
+  </si>
+  <si>
+    <t>Tạo 1 request</t>
+  </si>
+  <si>
+    <t>Tạo request đồng bộ bằng async/await</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>axios.post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">('/user', {
+ firstName: 'Fred',
+ lastName: 'Flintstone'
+})
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(function (response) {
+ console.log(response);
+})
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(function (error) {
+ console.log(error);
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;Sử dụng cú pháp mustache: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{{ rawHtml }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+&lt;p&gt;Sử dụng directive v-html: &lt;span </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>v-html="rawHtml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&lt;/span&gt;&lt;/p&gt;
+Nội dung của thẻ span sẽ được thay thế bằng giá trị của thuộc tính rawHtml dưới dạng HTML thuần túy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tất cả các ràng buộc dữ liệu sẽ không được xử lí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. Lưu ý rằng bạn không thể dùng v-html để viết template partial, vì Vue không phải là một template engine dựa trên chuỗi. Thay vào đó, hãy dùng component cho mục đích biên soạn và tái sử dụng UI.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1328,22 +1404,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1384,6 +1445,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1400,92 +1473,69 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1544,13 +1594,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1566,11 +1632,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1591,31 +1663,322 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
-      <selection pane="bottomRight" activeCell="B130" activeCellId="0" sqref="B130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="89.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="4" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.42"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89" style="1" customWidth="1"/>
+    <col min="4" max="1018" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1019" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1634,30 +1997,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1665,53 +2028,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>20</v>
       </c>
@@ -1719,212 +2082,337 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="5" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1" t="s">
+    <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="5" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="5" t="s">
+    </row>
+    <row r="99" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="1" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="6" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="7" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="7" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="7" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="7" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C119" s="7" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C121" s="7" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C123" s="7" t="s">
+    </row>
+    <row r="125" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="1" t="s">
+    </row>
+    <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="s">
+    <row r="129" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99130E95-CDF3-47DF-8421-C1A368CA8E13}">
+  <dimension ref="A1:AMD1048576"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89" style="1" customWidth="1"/>
+    <col min="4" max="1018" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1019" max="1025" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="7"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="7"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="7"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>